--- a/data/trans_orig/P1423-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P1423-Habitat-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>16291</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>10099</v>
+        <v>9642</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>25725</v>
+        <v>25026</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02347414432215684</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01455108447425685</v>
+        <v>0.01389302539099189</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03706658114310705</v>
+        <v>0.03605931079622308</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>46</v>
@@ -765,19 +765,19 @@
         <v>44622</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>33366</v>
+        <v>33668</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>60474</v>
+        <v>58988</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.06482504959526944</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.04847296247634125</v>
+        <v>0.04891092956058803</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.08785324011315994</v>
+        <v>0.08569448721447936</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>63</v>
@@ -786,19 +786,19 @@
         <v>60914</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>48134</v>
+        <v>46556</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>76809</v>
+        <v>76918</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.04406492619699994</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03481996956269019</v>
+        <v>0.03367868755288588</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05556391210999816</v>
+        <v>0.05564252939344919</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>677721</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>668287</v>
+        <v>668986</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>683913</v>
+        <v>684370</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9765258556778431</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9629334188568929</v>
+        <v>0.9639406892037768</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9854489155257424</v>
+        <v>0.9861069746090081</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>650</v>
@@ -836,19 +836,19 @@
         <v>643729</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>627877</v>
+        <v>629363</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>654985</v>
+        <v>654683</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9351749504047305</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9121467598868401</v>
+        <v>0.9143055127855206</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9515270375236586</v>
+        <v>0.951089070439412</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1316</v>
@@ -857,19 +857,19 @@
         <v>1321449</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1305554</v>
+        <v>1305445</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1334229</v>
+        <v>1335807</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.955935073803</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9444360878900019</v>
+        <v>0.9443574706065506</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9651800304373098</v>
+        <v>0.9663213124471141</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>28114</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>18953</v>
+        <v>18083</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>41347</v>
+        <v>39794</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02923019689006941</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01970554208596285</v>
+        <v>0.01880122048096567</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04298874482767509</v>
+        <v>0.04137474086116517</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>69</v>
@@ -982,19 +982,19 @@
         <v>75560</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>59353</v>
+        <v>59543</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>93871</v>
+        <v>93996</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.07802648088922277</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.06129070344777818</v>
+        <v>0.06148677619016212</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.09693457502271205</v>
+        <v>0.09706417656157294</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>95</v>
@@ -1003,19 +1003,19 @@
         <v>103674</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>84131</v>
+        <v>82964</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>123969</v>
+        <v>126744</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.05371167679158897</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.04358707733079242</v>
+        <v>0.04298222914681223</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.06422623053395847</v>
+        <v>0.06566415037361432</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>933686</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>920453</v>
+        <v>922006</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>942847</v>
+        <v>943717</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9707698031099306</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9570112551723251</v>
+        <v>0.9586252591388348</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9802944579140372</v>
+        <v>0.9811987795190342</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>839</v>
@@ -1053,19 +1053,19 @@
         <v>892833</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>874522</v>
+        <v>874397</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>909040</v>
+        <v>908850</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9219735191107772</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.903065424977288</v>
+        <v>0.9029358234384272</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9387092965522219</v>
+        <v>0.9385132238098379</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1709</v>
@@ -1074,19 +1074,19 @@
         <v>1826519</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1806224</v>
+        <v>1803449</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1846062</v>
+        <v>1847229</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9462883232084111</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9357737694660415</v>
+        <v>0.9343358496263854</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9564129226692076</v>
+        <v>0.9570177708531871</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>23833</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>16047</v>
+        <v>15483</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>34617</v>
+        <v>33951</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03512553365889369</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02364979706982978</v>
+        <v>0.02281880762953344</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05101916404431845</v>
+        <v>0.050038037424335</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>55</v>
@@ -1199,19 +1199,19 @@
         <v>54120</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>41295</v>
+        <v>41915</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>69308</v>
+        <v>69695</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.07914050101180616</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.06038680844157224</v>
+        <v>0.0612931262242814</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1013509309168169</v>
+        <v>0.1019174846950125</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>80</v>
@@ -1220,19 +1220,19 @@
         <v>77953</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>63022</v>
+        <v>62811</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>96335</v>
+        <v>94840</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.05721915274418268</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04625956613536968</v>
+        <v>0.04610482030746501</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.07071232364790966</v>
+        <v>0.06961497048709901</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>654676</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>643892</v>
+        <v>644558</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>662462</v>
+        <v>663026</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9648744663411063</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9489808359556818</v>
+        <v>0.9499619625756649</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9763502029301706</v>
+        <v>0.9771811923704665</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>641</v>
@@ -1270,19 +1270,19 @@
         <v>629721</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>614533</v>
+        <v>614146</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>642546</v>
+        <v>641926</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9208594989881939</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.898649069083183</v>
+        <v>0.8980825153049875</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9396131915584277</v>
+        <v>0.9387068737757182</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1257</v>
@@ -1291,19 +1291,19 @@
         <v>1284397</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1266015</v>
+        <v>1267510</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1299328</v>
+        <v>1299539</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9427808472558173</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9292876763520902</v>
+        <v>0.9303850295129009</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9537404338646301</v>
+        <v>0.953895179692535</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>33136</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>23519</v>
+        <v>23520</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>47965</v>
+        <v>45266</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03516777950420698</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0249617103416507</v>
+        <v>0.0249625796124857</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.05090648593956885</v>
+        <v>0.04804156003054108</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>78</v>
@@ -1416,19 +1416,19 @@
         <v>82820</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>67481</v>
+        <v>65171</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>100968</v>
+        <v>100883</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.07974060921397988</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.06497271668055306</v>
+        <v>0.06274774669964642</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.0972139761199572</v>
+        <v>0.09713242843107907</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>114</v>
@@ -1437,19 +1437,19 @@
         <v>115955</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>95241</v>
+        <v>96464</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>137399</v>
+        <v>136347</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.05853867965017088</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04808128360412677</v>
+        <v>0.04869872398112006</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06936404024957446</v>
+        <v>0.06883302948842515</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>909086</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>894257</v>
+        <v>896956</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>918703</v>
+        <v>918702</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.964832220495793</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9490935140604312</v>
+        <v>0.9519584399694588</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9750382896583493</v>
+        <v>0.9750374203875143</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>919</v>
@@ -1487,19 +1487,19 @@
         <v>955792</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>937644</v>
+        <v>937729</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>971131</v>
+        <v>973441</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9202593907860201</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9027860238800427</v>
+        <v>0.9028675715689209</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9350272833194468</v>
+        <v>0.9372522533003534</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1877</v>
@@ -1508,19 +1508,19 @@
         <v>1864879</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1843435</v>
+        <v>1844487</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1885593</v>
+        <v>1884370</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9414613203498291</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9306359597504256</v>
+        <v>0.9311669705115749</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9519187163958732</v>
+        <v>0.9513012760188799</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>101374</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>83286</v>
+        <v>82770</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>120883</v>
+        <v>123551</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.0309392511740386</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02541883440745864</v>
+        <v>0.02526144435520953</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03689358837622989</v>
+        <v>0.03770762250023565</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>248</v>
@@ -1633,19 +1633,19 @@
         <v>257122</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>225895</v>
+        <v>226724</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>288825</v>
+        <v>291879</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.07608960321522913</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.06684867282896477</v>
+        <v>0.06709415924874697</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.0854714691691327</v>
+        <v>0.08637525400442105</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>352</v>
@@ -1654,19 +1654,19 @@
         <v>358496</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>321106</v>
+        <v>321667</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>396371</v>
+        <v>394230</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.0538626126121917</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.04824503621807337</v>
+        <v>0.04832922847621215</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.05955317873674727</v>
+        <v>0.05923153005602007</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>3175169</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3155660</v>
+        <v>3152992</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3193257</v>
+        <v>3193773</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9690607488259614</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9631064116237695</v>
+        <v>0.9622923774997643</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9745811655925414</v>
+        <v>0.9747385556447903</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3049</v>
@@ -1704,19 +1704,19 @@
         <v>3122075</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3090372</v>
+        <v>3087318</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3153302</v>
+        <v>3152473</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9239103967847708</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.914528530830867</v>
+        <v>0.9136247459955792</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9331513271710346</v>
+        <v>0.932905840751253</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6159</v>
@@ -1725,19 +1725,19 @@
         <v>6297245</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6259370</v>
+        <v>6261511</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6334635</v>
+        <v>6334074</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9461373873878083</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.940446821263253</v>
+        <v>0.9407684699439801</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9517549637819267</v>
+        <v>0.9516707715237879</v>
       </c>
     </row>
     <row r="18">
@@ -2069,19 +2069,19 @@
         <v>25756</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>17231</v>
+        <v>17297</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>36735</v>
+        <v>36487</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03661274995738875</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02449495791475553</v>
+        <v>0.02458811264670333</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05222021014024109</v>
+        <v>0.05186714884998068</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>87</v>
@@ -2090,19 +2090,19 @@
         <v>90632</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>72478</v>
+        <v>74298</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>110064</v>
+        <v>110575</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.130021928447755</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1039786441912699</v>
+        <v>0.1065888335640834</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1579001679533006</v>
+        <v>0.1586325874590732</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>113</v>
@@ -2111,19 +2111,19 @@
         <v>116388</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>97756</v>
+        <v>97078</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>136737</v>
+        <v>138635</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.08310327869657561</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.06980001828507433</v>
+        <v>0.06931578703466522</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.09763291161010403</v>
+        <v>0.09898857037133235</v>
       </c>
     </row>
     <row r="5">
@@ -2140,19 +2140,19 @@
         <v>677713</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>666734</v>
+        <v>666982</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>686238</v>
+        <v>686172</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9633872500426113</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9477797898597587</v>
+        <v>0.9481328511500189</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9755050420852444</v>
+        <v>0.9754118873532966</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>563</v>
@@ -2161,19 +2161,19 @@
         <v>606418</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>586986</v>
+        <v>586475</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>624572</v>
+        <v>622752</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8699780715522449</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8420998320466995</v>
+        <v>0.8413674125409266</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8960213558087304</v>
+        <v>0.8934111664359167</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1211</v>
@@ -2182,19 +2182,19 @@
         <v>1284131</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1263782</v>
+        <v>1261884</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1302763</v>
+        <v>1303441</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9168967213034244</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9023670883898959</v>
+        <v>0.9010114296286676</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9301999817149254</v>
+        <v>0.9306842129653349</v>
       </c>
     </row>
     <row r="6">
@@ -2286,19 +2286,19 @@
         <v>47963</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>35271</v>
+        <v>34582</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>64409</v>
+        <v>64094</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.04711695947272408</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03464954602112059</v>
+        <v>0.03397254959109055</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.06327385471998012</v>
+        <v>0.06296441797789368</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>106</v>
@@ -2307,19 +2307,19 @@
         <v>116703</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>97031</v>
+        <v>96027</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>140284</v>
+        <v>137757</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1134171879264473</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.09429883803517773</v>
+        <v>0.09332306216550658</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1363338806179084</v>
+        <v>0.1338782237900413</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>149</v>
@@ -2328,19 +2328,19 @@
         <v>164666</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>140703</v>
+        <v>142243</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>192739</v>
+        <v>193860</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.08044564475424856</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.06873889441850588</v>
+        <v>0.06949106124529909</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.09416053441488108</v>
+        <v>0.09470808001046928</v>
       </c>
     </row>
     <row r="8">
@@ -2357,19 +2357,19 @@
         <v>969984</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>953538</v>
+        <v>953853</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>982676</v>
+        <v>983365</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9528830405272759</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9367261452800201</v>
+        <v>0.9370355820221064</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9653504539788795</v>
+        <v>0.9660274504089096</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>832</v>
@@ -2378,19 +2378,19 @@
         <v>912270</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>888689</v>
+        <v>891216</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>931942</v>
+        <v>932946</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8865828120735527</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8636661193820919</v>
+        <v>0.866121776209959</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9057011619648222</v>
+        <v>0.9066769378344935</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1725</v>
@@ -2399,19 +2399,19 @@
         <v>1882255</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1854182</v>
+        <v>1853061</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1906218</v>
+        <v>1904678</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9195543552457515</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9058394655851192</v>
+        <v>0.9052919199895306</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9312611055814944</v>
+        <v>0.9305089387547009</v>
       </c>
     </row>
     <row r="9">
@@ -2503,19 +2503,19 @@
         <v>24931</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>15263</v>
+        <v>14909</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>38406</v>
+        <v>38719</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.0329068820565441</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02014548370308249</v>
+        <v>0.01967813159282515</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05069261402432717</v>
+        <v>0.05110608889201162</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>73</v>
@@ -2524,19 +2524,19 @@
         <v>77966</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>62847</v>
+        <v>62054</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>96852</v>
+        <v>97963</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1003200309493087</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.08086646686201501</v>
+        <v>0.07984507019922903</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1246207911901364</v>
+        <v>0.1260500035240576</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>92</v>
@@ -2545,19 +2545,19 @@
         <v>102897</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>82652</v>
+        <v>83067</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>123239</v>
+        <v>125600</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.06704282059228542</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.05385192732112481</v>
+        <v>0.05412238840906324</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.08029678161803856</v>
+        <v>0.08183520474523172</v>
       </c>
     </row>
     <row r="11">
@@ -2574,19 +2574,19 @@
         <v>732692</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>719217</v>
+        <v>718904</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>742360</v>
+        <v>742714</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9670931179434559</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9493073859756727</v>
+        <v>0.9488939111079883</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9798545162969174</v>
+        <v>0.9803218684071748</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>632</v>
@@ -2595,19 +2595,19 @@
         <v>699208</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>680322</v>
+        <v>679211</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>714327</v>
+        <v>715120</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8996799690506913</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8753792088098636</v>
+        <v>0.8739499964759424</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9191335331379851</v>
+        <v>0.920154929800771</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1302</v>
@@ -2616,19 +2616,19 @@
         <v>1431900</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1411558</v>
+        <v>1409197</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1452145</v>
+        <v>1451730</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9329571794077146</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9197032183819616</v>
+        <v>0.9181647952547684</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9461480726788752</v>
+        <v>0.9458776115909368</v>
       </c>
     </row>
     <row r="12">
@@ -2720,19 +2720,19 @@
         <v>44031</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>32502</v>
+        <v>31961</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>59848</v>
+        <v>59645</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.04645854888257111</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03429395102253421</v>
+        <v>0.03372352312977893</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.06314779278891668</v>
+        <v>0.06293395841206129</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>116</v>
@@ -2741,19 +2741,19 @@
         <v>120302</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>99462</v>
+        <v>100515</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>142087</v>
+        <v>142016</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1143664378807369</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.09455408379405102</v>
+        <v>0.09555566340757717</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1350763371664916</v>
+        <v>0.1350086870950596</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>156</v>
@@ -2762,19 +2762,19 @@
         <v>164333</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>141127</v>
+        <v>139433</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>192195</v>
+        <v>190246</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.08218116061463973</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.07057595614749014</v>
+        <v>0.06972898909044746</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.09611473019893893</v>
+        <v>0.09514025383592985</v>
       </c>
     </row>
     <row r="14">
@@ -2791,19 +2791,19 @@
         <v>903708</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>887891</v>
+        <v>888094</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>915237</v>
+        <v>915778</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9535414511174289</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9368522072110835</v>
+        <v>0.9370660415879384</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9657060489774658</v>
+        <v>0.9662764768702209</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>887</v>
@@ -2812,19 +2812,19 @@
         <v>931599</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>909814</v>
+        <v>909885</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>952439</v>
+        <v>951386</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.885633562119263</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8649236628335084</v>
+        <v>0.8649913129049404</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9054459162059491</v>
+        <v>0.9044443365924228</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1757</v>
@@ -2833,19 +2833,19 @@
         <v>1835307</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1807445</v>
+        <v>1809394</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1858513</v>
+        <v>1860207</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9178188393853602</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9038852698010611</v>
+        <v>0.9048597461640701</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9294240438525097</v>
+        <v>0.9302710109095524</v>
       </c>
     </row>
     <row r="15">
@@ -2937,19 +2937,19 @@
         <v>142680</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>119879</v>
+        <v>119740</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>170209</v>
+        <v>171737</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.04163680623244728</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03498303961878504</v>
+        <v>0.0349425746676977</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04967038407956309</v>
+        <v>0.05011630025005198</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>382</v>
@@ -2958,19 +2958,19 @@
         <v>405603</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>369157</v>
+        <v>366961</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>446857</v>
+        <v>444689</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1140906099590445</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1038388704560248</v>
+        <v>0.1032210723958697</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1256947527940435</v>
+        <v>0.1250849597637257</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>510</v>
@@ -2979,19 +2979,19 @@
         <v>548283</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>503280</v>
+        <v>503099</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>593918</v>
+        <v>595718</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.07852952054940991</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.07208381372805435</v>
+        <v>0.07205781917207388</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0850656742327586</v>
+        <v>0.08532344135043349</v>
       </c>
     </row>
     <row r="17">
@@ -3008,19 +3008,19 @@
         <v>3284099</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3256570</v>
+        <v>3255042</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3306900</v>
+        <v>3307039</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9583631937675527</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.950329615920437</v>
+        <v>0.9498836997499482</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9650169603812151</v>
+        <v>0.9650574253323024</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2914</v>
@@ -3029,19 +3029,19 @@
         <v>3149495</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3108241</v>
+        <v>3110409</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3185941</v>
+        <v>3188137</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8859093900409555</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8743052472059568</v>
+        <v>0.8749150402362742</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8961611295439753</v>
+        <v>0.8967789276041302</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>5995</v>
@@ -3050,19 +3050,19 @@
         <v>6433594</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6387959</v>
+        <v>6386159</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6478597</v>
+        <v>6478778</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9214704794505901</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9149343257672414</v>
+        <v>0.9146765586495664</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9279161862719455</v>
+        <v>0.9279421808279261</v>
       </c>
     </row>
     <row r="18">
@@ -3394,19 +3394,19 @@
         <v>18319</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>11058</v>
+        <v>11053</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>29303</v>
+        <v>28610</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02714664382500781</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01638657399830962</v>
+        <v>0.01637927233783392</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.0434249289816752</v>
+        <v>0.04239838439393436</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>76</v>
@@ -3415,19 +3415,19 @@
         <v>78905</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>62002</v>
+        <v>63839</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>96780</v>
+        <v>99277</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1172724541973852</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.09215010769068219</v>
+        <v>0.09487952467909393</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1438386239740357</v>
+        <v>0.1475488393475448</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>94</v>
@@ -3436,19 +3436,19 @@
         <v>97224</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>78778</v>
+        <v>81099</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>119278</v>
+        <v>118281</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.07214397622427396</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.05845639314332741</v>
+        <v>0.06017890601309011</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.08850903672434932</v>
+        <v>0.08776930131821284</v>
       </c>
     </row>
     <row r="5">
@@ -3465,19 +3465,19 @@
         <v>656481</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>645497</v>
+        <v>646190</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>663742</v>
+        <v>663747</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9728533561749921</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9565750710183248</v>
+        <v>0.9576016156060657</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9836134260016903</v>
+        <v>0.983620727662166</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>590</v>
@@ -3486,19 +3486,19 @@
         <v>593934</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>576059</v>
+        <v>573562</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>610837</v>
+        <v>609000</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8827275458026147</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8561613760259643</v>
+        <v>0.8524511606524552</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9078498923093179</v>
+        <v>0.9051204753209061</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1224</v>
@@ -3507,19 +3507,19 @@
         <v>1250415</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1228361</v>
+        <v>1229358</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1268861</v>
+        <v>1266540</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9278560237757261</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9114909632756513</v>
+        <v>0.9122306986817875</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9415436068566727</v>
+        <v>0.9398210939869099</v>
       </c>
     </row>
     <row r="6">
@@ -3611,19 +3611,19 @@
         <v>22492</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>14909</v>
+        <v>14144</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>33471</v>
+        <v>32561</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02199886669890394</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01458213226357146</v>
+        <v>0.01383345699215559</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03273636092359819</v>
+        <v>0.03184627484116148</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>85</v>
@@ -3632,19 +3632,19 @@
         <v>94301</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>76012</v>
+        <v>77346</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>116269</v>
+        <v>117228</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.09042041842539753</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.07288412841153734</v>
+        <v>0.0741634670461038</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1114847951992017</v>
+        <v>0.1124047132190261</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>107</v>
@@ -3653,19 +3653,19 @@
         <v>116793</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>97065</v>
+        <v>96951</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>139103</v>
+        <v>138889</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.0565489107235457</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.04699681755988282</v>
+        <v>0.04694161097545882</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.06735079199190662</v>
+        <v>0.06724759670619412</v>
       </c>
     </row>
     <row r="8">
@@ -3682,19 +3682,19 @@
         <v>999939</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>988960</v>
+        <v>989870</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1007522</v>
+        <v>1008287</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9780011333010961</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9672636390764017</v>
+        <v>0.9681537251588384</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9854178677364283</v>
+        <v>0.9861665430078442</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>892</v>
@@ -3703,19 +3703,19 @@
         <v>948612</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>926644</v>
+        <v>925685</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>966901</v>
+        <v>965567</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9095795815746025</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8885152048007985</v>
+        <v>0.8875952867809737</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9271158715884626</v>
+        <v>0.925836532953896</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1821</v>
@@ -3724,19 +3724,19 @@
         <v>1948551</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1926241</v>
+        <v>1926455</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1968279</v>
+        <v>1968393</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9434510892764543</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9326492080080935</v>
+        <v>0.932752403293806</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9530031824401172</v>
+        <v>0.9530583890245413</v>
       </c>
     </row>
     <row r="9">
@@ -3828,19 +3828,19 @@
         <v>27756</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>18976</v>
+        <v>18656</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>39803</v>
+        <v>40345</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03654314687895339</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02498325328384902</v>
+        <v>0.02456164974742558</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05240323634237129</v>
+        <v>0.05311730693435696</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>66</v>
@@ -3849,19 +3849,19 @@
         <v>72276</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>57578</v>
+        <v>57847</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>91408</v>
+        <v>90687</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.09206963827864356</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.07334669949171381</v>
+        <v>0.07368920505364356</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1164411457834096</v>
+        <v>0.1155226394517377</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>92</v>
@@ -3870,19 +3870,19 @@
         <v>100032</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>80147</v>
+        <v>81735</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>120985</v>
+        <v>121035</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.06476400692306392</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.05188972986951929</v>
+        <v>0.05291807223595639</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.07832965662578797</v>
+        <v>0.07836170876014296</v>
       </c>
     </row>
     <row r="11">
@@ -3899,19 +3899,19 @@
         <v>731796</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>719749</v>
+        <v>719207</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>740576</v>
+        <v>740896</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9634568531210466</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9475967636576286</v>
+        <v>0.9468826930656417</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9750167467161509</v>
+        <v>0.9754383502525744</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>670</v>
@@ -3920,19 +3920,19 @@
         <v>712735</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>693603</v>
+        <v>694324</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>727433</v>
+        <v>727164</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9079303617213564</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8835588542165903</v>
+        <v>0.8844773605482623</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9266533005082859</v>
+        <v>0.9263107949463564</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1340</v>
@@ -3941,19 +3941,19 @@
         <v>1444531</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1423578</v>
+        <v>1423528</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1464416</v>
+        <v>1462828</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9352359930769361</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9216703433742122</v>
+        <v>0.921638291239857</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9481102701304808</v>
+        <v>0.9470819277640434</v>
       </c>
     </row>
     <row r="12">
@@ -4045,19 +4045,19 @@
         <v>42002</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>30258</v>
+        <v>30974</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>55605</v>
+        <v>58075</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.04479924372133275</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03227252477308603</v>
+        <v>0.03303656296452155</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.05930755951639749</v>
+        <v>0.06194173439831976</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>101</v>
@@ -4066,19 +4066,19 @@
         <v>115714</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>96502</v>
+        <v>95250</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>140185</v>
+        <v>137930</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1108602180988926</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.09245459043462474</v>
+        <v>0.09125523856636833</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1343052202130118</v>
+        <v>0.132145211301974</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>142</v>
@@ -4087,19 +4087,19 @@
         <v>157716</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>133143</v>
+        <v>132949</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>186033</v>
+        <v>184347</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.07960036286022858</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.06719845284003167</v>
+        <v>0.06710031413781699</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.09389207119139556</v>
+        <v>0.09304152412944458</v>
       </c>
     </row>
     <row r="14">
@@ -4116,19 +4116,19 @@
         <v>895565</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>881962</v>
+        <v>879492</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>907309</v>
+        <v>906593</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9552007562786673</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9406924404836026</v>
+        <v>0.9380582656016803</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9677274752269139</v>
+        <v>0.9669634370354784</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>858</v>
@@ -4137,19 +4137,19 @@
         <v>928065</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>903594</v>
+        <v>905849</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>947277</v>
+        <v>948529</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8891397819011074</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8656947797869882</v>
+        <v>0.8678547886980259</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9075454095653752</v>
+        <v>0.9087447614336316</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1749</v>
@@ -4158,19 +4158,19 @@
         <v>1823630</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1795313</v>
+        <v>1796999</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1848203</v>
+        <v>1848397</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9203996371397715</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9061079288086045</v>
+        <v>0.9069584758705554</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9328015471599684</v>
+        <v>0.9328996858621831</v>
       </c>
     </row>
     <row r="15">
@@ -4262,19 +4262,19 @@
         <v>110570</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>92862</v>
+        <v>90693</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>132371</v>
+        <v>132579</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03257459977889712</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02735774216036677</v>
+        <v>0.02671871535208471</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03899747741607205</v>
+        <v>0.03905860353258332</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>328</v>
@@ -4283,19 +4283,19 @@
         <v>361195</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>327389</v>
+        <v>327368</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>401245</v>
+        <v>405250</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1019018414644575</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.09236435696909912</v>
+        <v>0.09235842159472096</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1132006890924918</v>
+        <v>0.1143308499696666</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>435</v>
@@ -4304,19 +4304,19 @@
         <v>471765</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>429308</v>
+        <v>427540</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>515892</v>
+        <v>516440</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.06798851135334058</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.06186985075601258</v>
+        <v>0.06161498336982358</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.07434786254695809</v>
+        <v>0.07442686018912092</v>
       </c>
     </row>
     <row r="17">
@@ -4333,19 +4333,19 @@
         <v>3283780</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3261979</v>
+        <v>3261771</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3301488</v>
+        <v>3303657</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9674254002211029</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9610025225839278</v>
+        <v>0.9609413964674166</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9726422578396332</v>
+        <v>0.9732812846479153</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3010</v>
@@ -4354,19 +4354,19 @@
         <v>3183347</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3143297</v>
+        <v>3139292</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3217153</v>
+        <v>3217174</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8980981585355425</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8867993109075083</v>
+        <v>0.8856691500303335</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9076356430309009</v>
+        <v>0.907641578405279</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6134</v>
@@ -4375,19 +4375,19 @@
         <v>6467127</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6423000</v>
+        <v>6422452</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6509584</v>
+        <v>6511352</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9320114886466594</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9256521374530418</v>
+        <v>0.9255731398108791</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.938130149243987</v>
+        <v>0.9383850166301765</v>
       </c>
     </row>
     <row r="18">
@@ -4719,19 +4719,19 @@
         <v>52421</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>40618</v>
+        <v>40088</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>67604</v>
+        <v>68231</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.07589417117097846</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.05880580718286315</v>
+        <v>0.05803930198412698</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.09787639324317567</v>
+        <v>0.09878319802820607</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>151</v>
@@ -4740,19 +4740,19 @@
         <v>82123</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>69697</v>
+        <v>69745</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>95832</v>
+        <v>95751</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1118565081156609</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.09493114116838115</v>
+        <v>0.09499691606447672</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1305291254511814</v>
+        <v>0.1304192065344454</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>207</v>
@@ -4761,19 +4761,19 @@
         <v>134544</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>115528</v>
+        <v>116314</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>155074</v>
+        <v>154627</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.09442390561636764</v>
+        <v>0.09442390561636765</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0810788526645095</v>
+        <v>0.08163048239468776</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1088321299861247</v>
+        <v>0.1085187856886633</v>
       </c>
     </row>
     <row r="5">
@@ -4790,19 +4790,19 @@
         <v>638289</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>623106</v>
+        <v>622479</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>650092</v>
+        <v>650622</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.9241058288290215</v>
+        <v>0.9241058288290216</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9021236067568243</v>
+        <v>0.9012168019717938</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9411941928171368</v>
+        <v>0.9419606980158731</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1090</v>
@@ -4811,19 +4811,19 @@
         <v>652057</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>638348</v>
+        <v>638429</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>664483</v>
+        <v>664435</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8881434918843391</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8694708745488188</v>
+        <v>0.8695807934655546</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9050688588316189</v>
+        <v>0.9050030839355233</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1764</v>
@@ -4832,19 +4832,19 @@
         <v>1290345</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1269815</v>
+        <v>1270262</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1309361</v>
+        <v>1308575</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9055760943836325</v>
+        <v>0.9055760943836323</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8911678700138754</v>
+        <v>0.8914812143113368</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9189211473354904</v>
+        <v>0.9183695176053123</v>
       </c>
     </row>
     <row r="6">
@@ -4936,19 +4936,19 @@
         <v>48939</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>35797</v>
+        <v>35664</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>64217</v>
+        <v>63578</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.04665623980426969</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03412797200828242</v>
+        <v>0.03400052614900682</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.06122246821196127</v>
+        <v>0.0606128263927949</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>181</v>
@@ -4957,19 +4957,19 @@
         <v>120663</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>104212</v>
+        <v>104892</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>139719</v>
+        <v>139061</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1126139413910096</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.09726084506948464</v>
+        <v>0.09789464560374357</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1303985791675884</v>
+        <v>0.129784411482803</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>232</v>
@@ -4978,19 +4978,19 @@
         <v>169601</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>149074</v>
+        <v>148174</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>191683</v>
+        <v>194262</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.07998592635550729</v>
+        <v>0.07998592635550726</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0703050896287824</v>
+        <v>0.06988043137454504</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.0904000272752678</v>
+        <v>0.09161598787440491</v>
       </c>
     </row>
     <row r="8">
@@ -5007,19 +5007,19 @@
         <v>999978</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>984700</v>
+        <v>985339</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1013120</v>
+        <v>1013253</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9533437601957305</v>
+        <v>0.9533437601957303</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9387775317880388</v>
+        <v>0.9393871736072051</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9658720279917172</v>
+        <v>0.9659994738509934</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1336</v>
@@ -5028,19 +5028,19 @@
         <v>950811</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>931755</v>
+        <v>932413</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>967262</v>
+        <v>966582</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8873860586089903</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8696014208324114</v>
+        <v>0.8702155885171969</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9027391549305155</v>
+        <v>0.9021053543962563</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2249</v>
@@ -5049,19 +5049,19 @@
         <v>1950790</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1928708</v>
+        <v>1926129</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1971317</v>
+        <v>1972217</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9200140736444927</v>
+        <v>0.9200140736444926</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9095999727247327</v>
+        <v>0.9083840121255952</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9296949103712181</v>
+        <v>0.930119568625455</v>
       </c>
     </row>
     <row r="9">
@@ -5153,19 +5153,19 @@
         <v>44872</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>32208</v>
+        <v>33085</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>60160</v>
+        <v>62974</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.05587586586706599</v>
+        <v>0.05587586586706598</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0401064755762155</v>
+        <v>0.04119789742281628</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.07491202518754173</v>
+        <v>0.07841688278589101</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>149</v>
@@ -5174,19 +5174,19 @@
         <v>111673</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>93228</v>
+        <v>93789</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>132031</v>
+        <v>129948</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1374842658868616</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1147766621630186</v>
+        <v>0.1154673172411084</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1625484934475434</v>
+        <v>0.1599839819475857</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>189</v>
@@ -5195,19 +5195,19 @@
         <v>156545</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>134289</v>
+        <v>132250</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>180121</v>
+        <v>180303</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.09691210170710904</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.08313375458400427</v>
+        <v>0.0818714224847821</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1115071513199445</v>
+        <v>0.1116196756531626</v>
       </c>
     </row>
     <row r="11">
@@ -5224,19 +5224,19 @@
         <v>758201</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>742913</v>
+        <v>740099</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>770865</v>
+        <v>769988</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9441241341329342</v>
+        <v>0.9441241341329341</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9250879748124584</v>
+        <v>0.921583117214109</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9598935244237846</v>
+        <v>0.9588021025771841</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>898</v>
@@ -5245,19 +5245,19 @@
         <v>700586</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>680228</v>
+        <v>682311</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>719031</v>
+        <v>718470</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.8625157341131385</v>
+        <v>0.8625157341131383</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8374515065524566</v>
+        <v>0.8400160180524148</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8852233378369813</v>
+        <v>0.8845326827588923</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1534</v>
@@ -5266,19 +5266,19 @@
         <v>1458787</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1435211</v>
+        <v>1435029</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1481043</v>
+        <v>1483082</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9030878982928908</v>
+        <v>0.903087898292891</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8884928486800556</v>
+        <v>0.8883803243468373</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9168662454159957</v>
+        <v>0.9181285775152179</v>
       </c>
     </row>
     <row r="12">
@@ -5370,19 +5370,19 @@
         <v>68815</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>54138</v>
+        <v>53357</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>86189</v>
+        <v>85105</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.06950589127753984</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.05468123582414389</v>
+        <v>0.05389230832442361</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.08705400180341638</v>
+        <v>0.08595957807571547</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>211</v>
@@ -5391,19 +5391,19 @@
         <v>142172</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>124075</v>
+        <v>122869</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>160869</v>
+        <v>163777</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1270482867707091</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1108760692810418</v>
+        <v>0.109798647170791</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1437563115638735</v>
+        <v>0.1463548896515484</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>287</v>
@@ -5412,19 +5412,19 @@
         <v>210987</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>184916</v>
+        <v>186626</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>234853</v>
+        <v>237431</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1000365497126375</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.08767515868160905</v>
+        <v>0.08848576826032399</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.111351843957285</v>
+        <v>0.1125745427963608</v>
       </c>
     </row>
     <row r="14">
@@ -5441,19 +5441,19 @@
         <v>921247</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>903873</v>
+        <v>904957</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>935924</v>
+        <v>936705</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9304941087224601</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9129459981965834</v>
+        <v>0.9140404219242846</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9453187641758561</v>
+        <v>0.9461076916755765</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1351</v>
@@ -5462,19 +5462,19 @@
         <v>976869</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>958172</v>
+        <v>955264</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>994966</v>
+        <v>996172</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.872951713229291</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8562436884361271</v>
+        <v>0.8536451103484518</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8891239307189583</v>
+        <v>0.8902013528292092</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2281</v>
@@ -5483,19 +5483,19 @@
         <v>1898117</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1874251</v>
+        <v>1871673</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1924188</v>
+        <v>1922478</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.8999634502873625</v>
+        <v>0.8999634502873626</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8886481560427151</v>
+        <v>0.8874254572036392</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9123248413183912</v>
+        <v>0.9115142317396761</v>
       </c>
     </row>
     <row r="15">
@@ -5587,19 +5587,19 @@
         <v>215047</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>186348</v>
+        <v>186677</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>245351</v>
+        <v>246530</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.06087217903359984</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.05274862338834924</v>
+        <v>0.05284156113167961</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.06945010460675888</v>
+        <v>0.06978388707708502</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>692</v>
@@ -5608,19 +5608,19 @@
         <v>456631</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>422924</v>
+        <v>421601</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>489714</v>
+        <v>493596</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1221933134361761</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1131735126699529</v>
+        <v>0.1128193419395744</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1310463898084182</v>
+        <v>0.132085015254281</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>915</v>
@@ -5629,19 +5629,19 @@
         <v>671678</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>627111</v>
+        <v>624164</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>718365</v>
+        <v>715717</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.0923939422401306</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.08626347430456352</v>
+        <v>0.08585809493221654</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.09881609770852656</v>
+        <v>0.09845189202698827</v>
       </c>
     </row>
     <row r="17">
@@ -5658,19 +5658,19 @@
         <v>3317715</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3287411</v>
+        <v>3286232</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3346414</v>
+        <v>3346085</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9391278209664004</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9305498953932411</v>
+        <v>0.930216112922915</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9472513766116507</v>
+        <v>0.9471584388683201</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>4675</v>
@@ -5679,19 +5679,19 @@
         <v>3280323</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3247240</v>
+        <v>3243358</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3314030</v>
+        <v>3315353</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.8778066865638241</v>
+        <v>0.8778066865638238</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8689536101915818</v>
+        <v>0.8679149847457189</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.886826487330047</v>
+        <v>0.8871806580604257</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>7828</v>
@@ -5700,19 +5700,19 @@
         <v>6598038</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6551351</v>
+        <v>6553999</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6642605</v>
+        <v>6645552</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.9076060577598695</v>
+        <v>0.9076060577598692</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9011839022914735</v>
+        <v>0.9015481079730119</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9137365256954366</v>
+        <v>0.9141419050677836</v>
       </c>
     </row>
     <row r="18">
